--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jascha\Documents\GitHub\telescope-dew-heater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC8040E-A729-40C1-9BD1-BF212FE8AF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFE40B-5C54-4E4C-ABDE-EFA604A3CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="570" windowWidth="25935" windowHeight="14160" xr2:uid="{F3F4B27C-B2C1-47F1-8899-D01B6FC989AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{4528FF34-8F65-446F-A01A-DD04753AB1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Digikey Part #</t>
   </si>
   <si>
+    <t>Manufacturer Part#</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>399-9776-ND</t>
+  </si>
+  <si>
+    <t>C320C104M5R5TA</t>
+  </si>
+  <si>
+    <t>DECOUPLING CAP</t>
+  </si>
+  <si>
+    <t>732-8824-1-ND</t>
+  </si>
+  <si>
+    <t>555 TIMER CAP</t>
+  </si>
+  <si>
+    <t>1N4148FS-ND</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>555 TIMER DIODE</t>
+  </si>
+  <si>
+    <t>486-1223-ND</t>
+  </si>
+  <si>
+    <t>FUSE</t>
+  </si>
+  <si>
+    <t>2092-KLPX-0848A-2-W-ND</t>
+  </si>
+  <si>
+    <t>KLPX-0848A-2-W</t>
+  </si>
+  <si>
+    <t>RCA CONNECTOR</t>
+  </si>
+  <si>
+    <t>CP-063AH-ND</t>
+  </si>
+  <si>
+    <t>PJ-063AH</t>
+  </si>
+  <si>
+    <t>CIGRT LTR PWR CONN</t>
+  </si>
+  <si>
+    <t>785-1647-5-ND</t>
+  </si>
+  <si>
+    <t>AOI4286</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT1K00</t>
+  </si>
+  <si>
+    <t>555 TIMER RESISTOR</t>
+  </si>
+  <si>
+    <t>EG5619-ND</t>
+  </si>
+  <si>
+    <t>RA1113112R</t>
+  </si>
+  <si>
+    <t>POWER SWITCH</t>
+  </si>
+  <si>
     <t>296-NE555P-ND</t>
   </si>
   <si>
-    <t>555 timer</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>732-8941-1-ND</t>
-  </si>
-  <si>
-    <t>68u cap</t>
-  </si>
-  <si>
-    <t>1N4148FSCT-ND</t>
-  </si>
-  <si>
-    <t>diodes</t>
-  </si>
-  <si>
-    <t>399-9776-ND</t>
-  </si>
-  <si>
-    <t>decoupling caps</t>
+    <t>NE555P</t>
+  </si>
+  <si>
+    <t>555 TIMER</t>
+  </si>
+  <si>
+    <t>315-NCSW.0310.5OZ-ND</t>
+  </si>
+  <si>
+    <t>NCSW.031 0.5OZ</t>
+  </si>
+  <si>
+    <t>SOLDER</t>
   </si>
   <si>
     <t>732-5316-ND</t>
   </si>
   <si>
-    <t>pot headers</t>
-  </si>
-  <si>
-    <t>FIND POT</t>
+    <t>HEADERS</t>
+  </si>
+  <si>
+    <t>1568-1513-ND</t>
+  </si>
+  <si>
+    <t>PRT-12796</t>
+  </si>
+  <si>
+    <t>JUMPER WIRE F-F</t>
+  </si>
+  <si>
+    <t>987-1659-ND</t>
+  </si>
+  <si>
+    <t>P160KNP-0QC20B100K</t>
+  </si>
+  <si>
+    <t>POTENTIOMETER</t>
+  </si>
+  <si>
+    <t>4654-CL170825CR-ND</t>
+  </si>
+  <si>
+    <t>CL170825CR</t>
+  </si>
+  <si>
+    <t>POT KNOBS</t>
+  </si>
+  <si>
+    <t>heater resistors</t>
+  </si>
+  <si>
+    <t>RCA cable</t>
+  </si>
+  <si>
+    <t>heater construction materials</t>
+  </si>
+  <si>
+    <t>1528-2748-ND</t>
+  </si>
+  <si>
+    <t>COPPER TAPE</t>
+  </si>
+  <si>
+    <t>BC4187CT-ND</t>
+  </si>
+  <si>
+    <t>MRS25000C4870FCT00</t>
+  </si>
+  <si>
+    <t>HEATER RESISTORS</t>
+  </si>
+  <si>
+    <t>EAR1011-ND</t>
+  </si>
+  <si>
+    <t>CF42EG 3MM A4</t>
+  </si>
+  <si>
+    <t>HEATER FOAM</t>
+  </si>
+  <si>
+    <t>AE1406-ND</t>
+  </si>
+  <si>
+    <t>AK-CHMM-025</t>
+  </si>
+  <si>
+    <t>RCA CABLE</t>
   </si>
 </sst>
 </file>
@@ -121,12 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,92 +595,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA70233C-20CB-47BB-A61F-F35DA8970470}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6245C68-AFA1-474A-A069-279DF02F6D16}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>860020473007</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>34.312399999999997</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>61300311121</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>3483</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>